--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Gnas-Tshr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Gnas-Tshr.xlsx
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>86.484492</v>
+        <v>143.4675496666667</v>
       </c>
       <c r="H2">
-        <v>259.453476</v>
+        <v>430.402649</v>
       </c>
       <c r="I2">
-        <v>0.1133842074223504</v>
+        <v>0.2436371325027481</v>
       </c>
       <c r="J2">
-        <v>0.1133842074223504</v>
+        <v>0.2436371325027482</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.167924</v>
+        <v>0.22092</v>
       </c>
       <c r="N2">
-        <v>0.503772</v>
+        <v>0.66276</v>
       </c>
       <c r="O2">
-        <v>0.04291332780772943</v>
+        <v>0.06768692722940421</v>
       </c>
       <c r="P2">
-        <v>0.04291332780772943</v>
+        <v>0.06768692722940423</v>
       </c>
       <c r="Q2">
-        <v>14.522821834608</v>
+        <v>31.69485107236</v>
       </c>
       <c r="R2">
-        <v>130.705396511472</v>
+        <v>285.25365965124</v>
       </c>
       <c r="S2">
-        <v>0.00486569366133491</v>
+        <v>0.01649104885809423</v>
       </c>
       <c r="T2">
-        <v>0.004865693661334913</v>
+        <v>0.01649104885809423</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>86.484492</v>
+        <v>143.4675496666667</v>
       </c>
       <c r="H3">
-        <v>259.453476</v>
+        <v>430.402649</v>
       </c>
       <c r="I3">
-        <v>0.1133842074223504</v>
+        <v>0.2436371325027481</v>
       </c>
       <c r="J3">
-        <v>0.1133842074223504</v>
+        <v>0.2436371325027482</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>1.897648</v>
       </c>
       <c r="O3">
-        <v>0.1616492990632312</v>
+        <v>0.193804638305004</v>
       </c>
       <c r="P3">
-        <v>0.1616492990632313</v>
+        <v>0.193804638305004</v>
       </c>
       <c r="Q3">
-        <v>54.705707758272</v>
+        <v>90.75030289661687</v>
       </c>
       <c r="R3">
-        <v>492.3513698244481</v>
+        <v>816.752726069552</v>
       </c>
       <c r="S3">
-        <v>0.01832847765466296</v>
+        <v>0.04721800634236343</v>
       </c>
       <c r="T3">
-        <v>0.01832847765466297</v>
+        <v>0.04721800634236344</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>86.484492</v>
+        <v>143.4675496666667</v>
       </c>
       <c r="H4">
-        <v>259.453476</v>
+        <v>430.402649</v>
       </c>
       <c r="I4">
-        <v>0.1133842074223504</v>
+        <v>0.2436371325027481</v>
       </c>
       <c r="J4">
-        <v>0.1133842074223504</v>
+        <v>0.2436371325027482</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,28 +685,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.2560303333333334</v>
+        <v>0.1410223333333333</v>
       </c>
       <c r="N4">
-        <v>0.7680910000000001</v>
+        <v>0.423067</v>
       </c>
       <c r="O4">
-        <v>0.06542908472318174</v>
+        <v>0.04320735295153955</v>
       </c>
       <c r="P4">
-        <v>0.06542908472318174</v>
+        <v>0.04320735295153956</v>
       </c>
       <c r="Q4">
-        <v>22.142653314924</v>
+        <v>20.23212861160922</v>
       </c>
       <c r="R4">
-        <v>199.283879834316</v>
+        <v>182.089157504483</v>
       </c>
       <c r="S4">
-        <v>0.007418624913707775</v>
+        <v>0.01052691557614725</v>
       </c>
       <c r="T4">
-        <v>0.007418624913707778</v>
+        <v>0.01052691557614725</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>86.484492</v>
+        <v>143.4675496666667</v>
       </c>
       <c r="H5">
-        <v>259.453476</v>
+        <v>430.402649</v>
       </c>
       <c r="I5">
-        <v>0.1133842074223504</v>
+        <v>0.2436371325027481</v>
       </c>
       <c r="J5">
-        <v>0.1133842074223504</v>
+        <v>0.2436371325027482</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.7839796666666666</v>
+        <v>0.114977</v>
       </c>
       <c r="N5">
-        <v>2.351939</v>
+        <v>0.344931</v>
       </c>
       <c r="O5">
-        <v>0.200347636015466</v>
+        <v>0.03522741187785264</v>
       </c>
       <c r="P5">
-        <v>0.200347636015466</v>
+        <v>0.03522741187785266</v>
       </c>
       <c r="Q5">
-        <v>67.802083209996</v>
+        <v>16.49546845802433</v>
       </c>
       <c r="R5">
-        <v>610.218748889964</v>
+        <v>148.459216122219</v>
       </c>
       <c r="S5">
-        <v>0.02271625791855516</v>
+        <v>0.008582705615413268</v>
       </c>
       <c r="T5">
-        <v>0.02271625791855517</v>
+        <v>0.008582705615413272</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>86.484492</v>
+        <v>143.4675496666667</v>
       </c>
       <c r="H6">
-        <v>259.453476</v>
+        <v>430.402649</v>
       </c>
       <c r="I6">
-        <v>0.1133842074223504</v>
+        <v>0.2436371325027481</v>
       </c>
       <c r="J6">
-        <v>0.1133842074223504</v>
+        <v>0.2436371325027482</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.862788333333333</v>
+        <v>2.032918666666667</v>
       </c>
       <c r="N6">
-        <v>5.588365</v>
+        <v>6.098756</v>
       </c>
       <c r="O6">
-        <v>0.476039436797285</v>
+        <v>0.6228590342837411</v>
       </c>
       <c r="P6">
-        <v>0.4760394367972851</v>
+        <v>0.6228590342837412</v>
       </c>
       <c r="Q6">
-        <v>161.10230271186</v>
+        <v>291.6578597782938</v>
       </c>
       <c r="R6">
-        <v>1449.92072440674</v>
+        <v>2624.920738004644</v>
       </c>
       <c r="S6">
-        <v>0.05397535424304222</v>
+        <v>0.1517515890663216</v>
       </c>
       <c r="T6">
-        <v>0.05397535424304225</v>
+        <v>0.1517515890663216</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>86.484492</v>
+        <v>143.4675496666667</v>
       </c>
       <c r="H7">
-        <v>259.453476</v>
+        <v>430.402649</v>
       </c>
       <c r="I7">
-        <v>0.1133842074223504</v>
+        <v>0.2436371325027481</v>
       </c>
       <c r="J7">
-        <v>0.1133842074223504</v>
+        <v>0.2436371325027482</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.209825</v>
+        <v>0.121463</v>
       </c>
       <c r="N7">
-        <v>0.629475</v>
+        <v>0.364389</v>
       </c>
       <c r="O7">
-        <v>0.05362121559310657</v>
+        <v>0.03721463535245846</v>
       </c>
       <c r="P7">
-        <v>0.05362121559310658</v>
+        <v>0.03721463535245847</v>
       </c>
       <c r="Q7">
-        <v>18.1466085339</v>
+        <v>17.42599898516233</v>
       </c>
       <c r="R7">
-        <v>163.3194768051</v>
+        <v>156.833990866461</v>
       </c>
       <c r="S7">
-        <v>0.006079799031047365</v>
+        <v>0.009066867044408377</v>
       </c>
       <c r="T7">
-        <v>0.006079799031047367</v>
+        <v>0.009066867044408379</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,40 +921,40 @@
         <v>473.562271</v>
       </c>
       <c r="I8">
-        <v>0.206952258224759</v>
+        <v>0.2680684099784185</v>
       </c>
       <c r="J8">
-        <v>0.206952258224759</v>
+        <v>0.2680684099784185</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.167924</v>
+        <v>0.22092</v>
       </c>
       <c r="N8">
-        <v>0.503772</v>
+        <v>0.66276</v>
       </c>
       <c r="O8">
-        <v>0.04291332780772943</v>
+        <v>0.06768692722940421</v>
       </c>
       <c r="P8">
-        <v>0.04291332780772943</v>
+        <v>0.06768692722940423</v>
       </c>
       <c r="Q8">
-        <v>26.50749026513467</v>
+        <v>34.87312563644</v>
       </c>
       <c r="R8">
-        <v>238.567412386212</v>
+        <v>313.85813072796</v>
       </c>
       <c r="S8">
-        <v>0.008881010097748951</v>
+        <v>0.0181447269587113</v>
       </c>
       <c r="T8">
-        <v>0.008881010097748955</v>
+        <v>0.01814472695871131</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>473.562271</v>
       </c>
       <c r="I9">
-        <v>0.206952258224759</v>
+        <v>0.2680684099784185</v>
       </c>
       <c r="J9">
-        <v>0.206952258224759</v>
+        <v>0.2680684099784185</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>1.897648</v>
       </c>
       <c r="O9">
-        <v>0.1616492990632312</v>
+        <v>0.193804638305004</v>
       </c>
       <c r="P9">
-        <v>0.1616492990632313</v>
+        <v>0.193804638305004</v>
       </c>
       <c r="Q9">
         <v>99.85049960428978</v>
@@ -1013,10 +1013,10 @@
         <v>898.654496438608</v>
       </c>
       <c r="S9">
-        <v>0.03345368748158512</v>
+        <v>0.05195290123686491</v>
       </c>
       <c r="T9">
-        <v>0.03345368748158514</v>
+        <v>0.05195290123686492</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>473.562271</v>
       </c>
       <c r="I10">
-        <v>0.206952258224759</v>
+        <v>0.2680684099784185</v>
       </c>
       <c r="J10">
-        <v>0.206952258224759</v>
+        <v>0.2680684099784185</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1057,28 +1057,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.2560303333333334</v>
+        <v>0.1410223333333333</v>
       </c>
       <c r="N10">
-        <v>0.7680910000000001</v>
+        <v>0.423067</v>
       </c>
       <c r="O10">
-        <v>0.06542908472318174</v>
+        <v>0.04320735295153955</v>
       </c>
       <c r="P10">
-        <v>0.06542908472318174</v>
+        <v>0.04320735295153956</v>
       </c>
       <c r="Q10">
-        <v>40.41543536607345</v>
+        <v>22.26095214501744</v>
       </c>
       <c r="R10">
-        <v>363.7389182946611</v>
+        <v>200.348569305157</v>
       </c>
       <c r="S10">
-        <v>0.01354069683704154</v>
+        <v>0.01158252640509553</v>
       </c>
       <c r="T10">
-        <v>0.01354069683704154</v>
+        <v>0.01158252640509554</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,40 +1107,40 @@
         <v>473.562271</v>
       </c>
       <c r="I11">
-        <v>0.206952258224759</v>
+        <v>0.2680684099784185</v>
       </c>
       <c r="J11">
-        <v>0.206952258224759</v>
+        <v>0.2680684099784185</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.7839796666666666</v>
+        <v>0.114977</v>
       </c>
       <c r="N11">
-        <v>2.351939</v>
+        <v>0.344931</v>
       </c>
       <c r="O11">
-        <v>0.200347636015466</v>
+        <v>0.03522741187785264</v>
       </c>
       <c r="P11">
-        <v>0.200347636015466</v>
+        <v>0.03522741187785266</v>
       </c>
       <c r="Q11">
-        <v>123.7543971214966</v>
+        <v>18.14958974425567</v>
       </c>
       <c r="R11">
-        <v>1113.789574093469</v>
+        <v>163.346307698301</v>
       </c>
       <c r="S11">
-        <v>0.04146239570339275</v>
+        <v>0.009443356289750812</v>
       </c>
       <c r="T11">
-        <v>0.04146239570339276</v>
+        <v>0.009443356289750815</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>473.562271</v>
       </c>
       <c r="I12">
-        <v>0.206952258224759</v>
+        <v>0.2680684099784185</v>
       </c>
       <c r="J12">
-        <v>0.206952258224759</v>
+        <v>0.2680684099784185</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.862788333333333</v>
+        <v>2.032918666666667</v>
       </c>
       <c r="N12">
-        <v>5.588365</v>
+        <v>6.098756</v>
       </c>
       <c r="O12">
-        <v>0.476039436797285</v>
+        <v>0.6228590342837411</v>
       </c>
       <c r="P12">
-        <v>0.4760394367972851</v>
+        <v>0.6228590342837412</v>
       </c>
       <c r="Q12">
-        <v>294.0487578418795</v>
+        <v>320.9045268483196</v>
       </c>
       <c r="R12">
-        <v>2646.438820576915</v>
+        <v>2888.140741634876</v>
       </c>
       <c r="S12">
-        <v>0.09851743644924056</v>
+        <v>0.1669688309611357</v>
       </c>
       <c r="T12">
-        <v>0.0985174364492406</v>
+        <v>0.1669688309611357</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>473.562271</v>
       </c>
       <c r="I13">
-        <v>0.206952258224759</v>
+        <v>0.2680684099784185</v>
       </c>
       <c r="J13">
-        <v>0.206952258224759</v>
+        <v>0.2680684099784185</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.209825</v>
+        <v>0.121463</v>
       </c>
       <c r="N13">
-        <v>0.629475</v>
+        <v>0.364389</v>
       </c>
       <c r="O13">
-        <v>0.05362121559310657</v>
+        <v>0.03721463535245846</v>
       </c>
       <c r="P13">
-        <v>0.05362121559310658</v>
+        <v>0.03721463535245847</v>
       </c>
       <c r="Q13">
-        <v>33.12173450419167</v>
+        <v>19.17343137415767</v>
       </c>
       <c r="R13">
-        <v>298.095610537725</v>
+        <v>172.560882367419</v>
       </c>
       <c r="S13">
-        <v>0.01109703165575006</v>
+        <v>0.00997606812686018</v>
       </c>
       <c r="T13">
-        <v>0.01109703165575007</v>
+        <v>0.009976068126860181</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>107.1200406666667</v>
+        <v>72.92931733333334</v>
       </c>
       <c r="H14">
-        <v>321.360122</v>
+        <v>218.787952</v>
       </c>
       <c r="I14">
-        <v>0.1404381367013168</v>
+        <v>0.1238488410219541</v>
       </c>
       <c r="J14">
-        <v>0.1404381367013169</v>
+        <v>0.1238488410219541</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.167924</v>
+        <v>0.22092</v>
       </c>
       <c r="N14">
-        <v>0.503772</v>
+        <v>0.66276</v>
       </c>
       <c r="O14">
-        <v>0.04291332780772943</v>
+        <v>0.06768692722940421</v>
       </c>
       <c r="P14">
-        <v>0.04291332780772943</v>
+        <v>0.06768692722940423</v>
       </c>
       <c r="Q14">
-        <v>17.98802570890933</v>
+        <v>16.11154478528</v>
       </c>
       <c r="R14">
-        <v>161.892231380184</v>
+        <v>145.00390306752</v>
       </c>
       <c r="S14">
-        <v>0.006026667796970326</v>
+        <v>0.008382947489699057</v>
       </c>
       <c r="T14">
-        <v>0.006026667796970329</v>
+        <v>0.008382947489699059</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>107.1200406666667</v>
+        <v>72.92931733333334</v>
       </c>
       <c r="H15">
-        <v>321.360122</v>
+        <v>218.787952</v>
       </c>
       <c r="I15">
-        <v>0.1404381367013168</v>
+        <v>0.1238488410219541</v>
       </c>
       <c r="J15">
-        <v>0.1404381367013169</v>
+        <v>0.1238488410219541</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>1.897648</v>
       </c>
       <c r="O15">
-        <v>0.1616492990632312</v>
+        <v>0.193804638305004</v>
       </c>
       <c r="P15">
-        <v>0.1616492990632313</v>
+        <v>0.193804638305004</v>
       </c>
       <c r="Q15">
-        <v>67.75871031033955</v>
+        <v>46.13139105965512</v>
       </c>
       <c r="R15">
-        <v>609.828392793056</v>
+        <v>415.1825195368961</v>
       </c>
       <c r="S15">
-        <v>0.02270172635951412</v>
+        <v>0.02400247983875375</v>
       </c>
       <c r="T15">
-        <v>0.02270172635951413</v>
+        <v>0.02400247983875376</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>107.1200406666667</v>
+        <v>72.92931733333334</v>
       </c>
       <c r="H16">
-        <v>321.360122</v>
+        <v>218.787952</v>
       </c>
       <c r="I16">
-        <v>0.1404381367013168</v>
+        <v>0.1238488410219541</v>
       </c>
       <c r="J16">
-        <v>0.1404381367013169</v>
+        <v>0.1238488410219541</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1429,28 +1429,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.2560303333333334</v>
+        <v>0.1410223333333333</v>
       </c>
       <c r="N16">
-        <v>0.7680910000000001</v>
+        <v>0.423067</v>
       </c>
       <c r="O16">
-        <v>0.06542908472318174</v>
+        <v>0.04320735295153955</v>
       </c>
       <c r="P16">
-        <v>0.06542908472318174</v>
+        <v>0.04320735295153956</v>
       </c>
       <c r="Q16">
-        <v>27.42597971856689</v>
+        <v>10.28466249875378</v>
       </c>
       <c r="R16">
-        <v>246.833817467102</v>
+        <v>92.56196248878402</v>
       </c>
       <c r="S16">
-        <v>0.009188738744596237</v>
+        <v>0.00535118058667468</v>
       </c>
       <c r="T16">
-        <v>0.009188738744596241</v>
+        <v>0.005351180586674682</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,46 +1473,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>107.1200406666667</v>
+        <v>72.92931733333334</v>
       </c>
       <c r="H17">
-        <v>321.360122</v>
+        <v>218.787952</v>
       </c>
       <c r="I17">
-        <v>0.1404381367013168</v>
+        <v>0.1238488410219541</v>
       </c>
       <c r="J17">
-        <v>0.1404381367013169</v>
+        <v>0.1238488410219541</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.7839796666666666</v>
+        <v>0.114977</v>
       </c>
       <c r="N17">
-        <v>2.351939</v>
+        <v>0.344931</v>
       </c>
       <c r="O17">
-        <v>0.200347636015466</v>
+        <v>0.03522741187785264</v>
       </c>
       <c r="P17">
-        <v>0.200347636015466</v>
+        <v>0.03522741187785266</v>
       </c>
       <c r="Q17">
-        <v>83.97993377517311</v>
+        <v>8.385194119034667</v>
       </c>
       <c r="R17">
-        <v>755.8194039765579</v>
+        <v>75.466747071312</v>
       </c>
       <c r="S17">
-        <v>0.02813644869452568</v>
+        <v>0.00436287413327507</v>
       </c>
       <c r="T17">
-        <v>0.0281364486945257</v>
+        <v>0.004362874133275072</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>107.1200406666667</v>
+        <v>72.92931733333334</v>
       </c>
       <c r="H18">
-        <v>321.360122</v>
+        <v>218.787952</v>
       </c>
       <c r="I18">
-        <v>0.1404381367013168</v>
+        <v>0.1238488410219541</v>
       </c>
       <c r="J18">
-        <v>0.1404381367013169</v>
+        <v>0.1238488410219541</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.862788333333333</v>
+        <v>2.032918666666667</v>
       </c>
       <c r="N18">
-        <v>5.588365</v>
+        <v>6.098756</v>
       </c>
       <c r="O18">
-        <v>0.476039436797285</v>
+        <v>0.6228590342837411</v>
       </c>
       <c r="P18">
-        <v>0.4760394367972851</v>
+        <v>0.6228590342837412</v>
       </c>
       <c r="Q18">
-        <v>199.5419620200589</v>
+        <v>148.2593705541902</v>
       </c>
       <c r="R18">
-        <v>1795.87765818053</v>
+        <v>1334.334334987712</v>
       </c>
       <c r="S18">
-        <v>0.06685409150015498</v>
+        <v>0.0771403695160949</v>
       </c>
       <c r="T18">
-        <v>0.06685409150015502</v>
+        <v>0.07714036951609492</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>107.1200406666667</v>
+        <v>72.92931733333334</v>
       </c>
       <c r="H19">
-        <v>321.360122</v>
+        <v>218.787952</v>
       </c>
       <c r="I19">
-        <v>0.1404381367013168</v>
+        <v>0.1238488410219541</v>
       </c>
       <c r="J19">
-        <v>0.1404381367013169</v>
+        <v>0.1238488410219541</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.209825</v>
+        <v>0.121463</v>
       </c>
       <c r="N19">
-        <v>0.629475</v>
+        <v>0.364389</v>
       </c>
       <c r="O19">
-        <v>0.05362121559310657</v>
+        <v>0.03721463535245846</v>
       </c>
       <c r="P19">
-        <v>0.05362121559310658</v>
+        <v>0.03721463535245847</v>
       </c>
       <c r="Q19">
-        <v>22.47646253288334</v>
+        <v>8.858213671258667</v>
       </c>
       <c r="R19">
-        <v>202.28816279595</v>
+        <v>79.72392304132801</v>
       </c>
       <c r="S19">
-        <v>0.007530463605555482</v>
+        <v>0.00460898945745662</v>
       </c>
       <c r="T19">
-        <v>0.007530463605555486</v>
+        <v>0.004608989457456621</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>270.499283</v>
+        <v>86.33190533333334</v>
       </c>
       <c r="H20">
-        <v>811.497849</v>
+        <v>258.995716</v>
       </c>
       <c r="I20">
-        <v>0.354634063310091</v>
+        <v>0.1466091663779145</v>
       </c>
       <c r="J20">
-        <v>0.3546340633100911</v>
+        <v>0.1466091663779145</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.167924</v>
+        <v>0.22092</v>
       </c>
       <c r="N20">
-        <v>0.503772</v>
+        <v>0.66276</v>
       </c>
       <c r="O20">
-        <v>0.04291332780772943</v>
+        <v>0.06768692722940421</v>
       </c>
       <c r="P20">
-        <v>0.04291332780772943</v>
+        <v>0.06768692722940423</v>
       </c>
       <c r="Q20">
-        <v>45.423321598492</v>
+        <v>19.07244452624</v>
       </c>
       <c r="R20">
-        <v>408.809894386428</v>
+        <v>171.65200073616</v>
       </c>
       <c r="S20">
-        <v>0.01521852781061301</v>
+        <v>0.009923523975785513</v>
       </c>
       <c r="T20">
-        <v>0.01521852781061301</v>
+        <v>0.009923523975785515</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>270.499283</v>
+        <v>86.33190533333334</v>
       </c>
       <c r="H21">
-        <v>811.497849</v>
+        <v>258.995716</v>
       </c>
       <c r="I21">
-        <v>0.354634063310091</v>
+        <v>0.1466091663779145</v>
       </c>
       <c r="J21">
-        <v>0.3546340633100911</v>
+        <v>0.1466091663779145</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>1.897648</v>
       </c>
       <c r="O21">
-        <v>0.1616492990632312</v>
+        <v>0.193804638305004</v>
       </c>
       <c r="P21">
-        <v>0.1616492990632313</v>
+        <v>0.193804638305004</v>
       </c>
       <c r="Q21">
-        <v>171.1041411287947</v>
+        <v>54.60918916399645</v>
       </c>
       <c r="R21">
-        <v>1539.937270159152</v>
+        <v>491.482702475968</v>
       </c>
       <c r="S21">
-        <v>0.05732634775802178</v>
+        <v>0.02841353646206987</v>
       </c>
       <c r="T21">
-        <v>0.05732634775802181</v>
+        <v>0.02841353646206988</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>270.499283</v>
+        <v>86.33190533333334</v>
       </c>
       <c r="H22">
-        <v>811.497849</v>
+        <v>258.995716</v>
       </c>
       <c r="I22">
-        <v>0.354634063310091</v>
+        <v>0.1466091663779145</v>
       </c>
       <c r="J22">
-        <v>0.3546340633100911</v>
+        <v>0.1466091663779145</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1801,28 +1801,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.2560303333333334</v>
+        <v>0.1410223333333333</v>
       </c>
       <c r="N22">
-        <v>0.7680910000000001</v>
+        <v>0.423067</v>
       </c>
       <c r="O22">
-        <v>0.06542908472318174</v>
+        <v>0.04320735295153955</v>
       </c>
       <c r="P22">
-        <v>0.06542908472318174</v>
+        <v>0.04320735295153956</v>
       </c>
       <c r="Q22">
-        <v>69.25602159291768</v>
+        <v>12.17472673121911</v>
       </c>
       <c r="R22">
-        <v>623.304194336259</v>
+        <v>109.572540580972</v>
       </c>
       <c r="S22">
-        <v>0.02320338217404214</v>
+        <v>0.006334593997621536</v>
       </c>
       <c r="T22">
-        <v>0.02320338217404215</v>
+        <v>0.006334593997621538</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,46 +1845,46 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>270.499283</v>
+        <v>86.33190533333334</v>
       </c>
       <c r="H23">
-        <v>811.497849</v>
+        <v>258.995716</v>
       </c>
       <c r="I23">
-        <v>0.354634063310091</v>
+        <v>0.1466091663779145</v>
       </c>
       <c r="J23">
-        <v>0.3546340633100911</v>
+        <v>0.1466091663779145</v>
       </c>
       <c r="K23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M23">
-        <v>0.7839796666666666</v>
+        <v>0.114977</v>
       </c>
       <c r="N23">
-        <v>2.351939</v>
+        <v>0.344931</v>
       </c>
       <c r="O23">
-        <v>0.200347636015466</v>
+        <v>0.03522741187785264</v>
       </c>
       <c r="P23">
-        <v>0.200347636015466</v>
+        <v>0.03522741187785266</v>
       </c>
       <c r="Q23">
-        <v>212.0659377199123</v>
+        <v>9.926183479510668</v>
       </c>
       <c r="R23">
-        <v>1908.593439479211</v>
+        <v>89.335651315596</v>
       </c>
       <c r="S23">
-        <v>0.07105009623473585</v>
+        <v>0.005164661489063419</v>
       </c>
       <c r="T23">
-        <v>0.07105009623473586</v>
+        <v>0.005164661489063422</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>270.499283</v>
+        <v>86.33190533333334</v>
       </c>
       <c r="H24">
-        <v>811.497849</v>
+        <v>258.995716</v>
       </c>
       <c r="I24">
-        <v>0.354634063310091</v>
+        <v>0.1466091663779145</v>
       </c>
       <c r="J24">
-        <v>0.3546340633100911</v>
+        <v>0.1466091663779145</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.862788333333333</v>
+        <v>2.032918666666667</v>
       </c>
       <c r="N24">
-        <v>5.588365</v>
+        <v>6.098756</v>
       </c>
       <c r="O24">
-        <v>0.476039436797285</v>
+        <v>0.6228590342837411</v>
       </c>
       <c r="P24">
-        <v>0.4760394367972851</v>
+        <v>0.6228590342837412</v>
       </c>
       <c r="Q24">
-        <v>503.8829085474316</v>
+        <v>175.5057418810329</v>
       </c>
       <c r="R24">
-        <v>4534.946176926885</v>
+        <v>1579.551676929296</v>
       </c>
       <c r="S24">
-        <v>0.1688197997672684</v>
+        <v>0.09131684378729214</v>
       </c>
       <c r="T24">
-        <v>0.1688197997672685</v>
+        <v>0.09131684378729217</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>270.499283</v>
+        <v>86.33190533333334</v>
       </c>
       <c r="H25">
-        <v>811.497849</v>
+        <v>258.995716</v>
       </c>
       <c r="I25">
-        <v>0.354634063310091</v>
+        <v>0.1466091663779145</v>
       </c>
       <c r="J25">
-        <v>0.3546340633100911</v>
+        <v>0.1466091663779145</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.209825</v>
+        <v>0.121463</v>
       </c>
       <c r="N25">
-        <v>0.629475</v>
+        <v>0.364389</v>
       </c>
       <c r="O25">
-        <v>0.05362121559310657</v>
+        <v>0.03721463535245846</v>
       </c>
       <c r="P25">
-        <v>0.05362121559310658</v>
+        <v>0.03721463535245847</v>
       </c>
       <c r="Q25">
-        <v>56.757512055475</v>
+        <v>10.48613221750267</v>
       </c>
       <c r="R25">
-        <v>510.817608499275</v>
+        <v>94.37518995752401</v>
       </c>
       <c r="S25">
-        <v>0.0190159095654098</v>
+        <v>0.005456006666082001</v>
       </c>
       <c r="T25">
-        <v>0.0190159095654098</v>
+        <v>0.005456006666082002</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,46 +2031,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>36.59512433333333</v>
+        <v>34.55480166666666</v>
       </c>
       <c r="H26">
-        <v>109.785373</v>
+        <v>103.664405</v>
       </c>
       <c r="I26">
-        <v>0.04797749367663937</v>
+        <v>0.05868109416957502</v>
       </c>
       <c r="J26">
-        <v>0.04797749367663939</v>
+        <v>0.05868109416957502</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.167924</v>
+        <v>0.22092</v>
       </c>
       <c r="N26">
-        <v>0.503772</v>
+        <v>0.66276</v>
       </c>
       <c r="O26">
-        <v>0.04291332780772943</v>
+        <v>0.06768692722940421</v>
       </c>
       <c r="P26">
-        <v>0.04291332780772943</v>
+        <v>0.06768692722940423</v>
       </c>
       <c r="Q26">
-        <v>6.145199658550666</v>
+        <v>7.633846784199999</v>
       </c>
       <c r="R26">
-        <v>55.306796926956</v>
+        <v>68.7046210578</v>
       </c>
       <c r="S26">
-        <v>0.002058873913538891</v>
+        <v>0.003971942950797841</v>
       </c>
       <c r="T26">
-        <v>0.002058873913538892</v>
+        <v>0.003971942950797842</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>36.59512433333333</v>
+        <v>34.55480166666666</v>
       </c>
       <c r="H27">
-        <v>109.785373</v>
+        <v>103.664405</v>
       </c>
       <c r="I27">
-        <v>0.04797749367663937</v>
+        <v>0.05868109416957502</v>
       </c>
       <c r="J27">
-        <v>0.04797749367663939</v>
+        <v>0.05868109416957502</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>1.897648</v>
       </c>
       <c r="O27">
-        <v>0.1616492990632312</v>
+        <v>0.193804638305004</v>
       </c>
       <c r="P27">
-        <v>0.1616492990632313</v>
+        <v>0.193804638305004</v>
       </c>
       <c r="Q27">
-        <v>23.14822150030044</v>
+        <v>21.85761675771555</v>
       </c>
       <c r="R27">
-        <v>208.333993502704</v>
+        <v>196.71855081944</v>
       </c>
       <c r="S27">
-        <v>0.007755528223639364</v>
+        <v>0.01137266823087636</v>
       </c>
       <c r="T27">
-        <v>0.007755528223639368</v>
+        <v>0.01137266823087637</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>36.59512433333333</v>
+        <v>34.55480166666666</v>
       </c>
       <c r="H28">
-        <v>109.785373</v>
+        <v>103.664405</v>
       </c>
       <c r="I28">
-        <v>0.04797749367663937</v>
+        <v>0.05868109416957502</v>
       </c>
       <c r="J28">
-        <v>0.04797749367663939</v>
+        <v>0.05868109416957502</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -2173,28 +2173,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M28">
-        <v>0.2560303333333334</v>
+        <v>0.1410223333333333</v>
       </c>
       <c r="N28">
-        <v>0.7680910000000001</v>
+        <v>0.423067</v>
       </c>
       <c r="O28">
-        <v>0.06542908472318174</v>
+        <v>0.04320735295153955</v>
       </c>
       <c r="P28">
-        <v>0.06542908472318174</v>
+        <v>0.04320735295153956</v>
       </c>
       <c r="Q28">
-        <v>9.369461881438111</v>
+        <v>4.872998758903888</v>
       </c>
       <c r="R28">
-        <v>84.325156932943</v>
+        <v>43.85698883013499</v>
       </c>
       <c r="S28">
-        <v>0.003139123498574753</v>
+        <v>0.002535454747367358</v>
       </c>
       <c r="T28">
-        <v>0.003139123498574755</v>
+        <v>0.002535454747367358</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,46 +2217,46 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>36.59512433333333</v>
+        <v>34.55480166666666</v>
       </c>
       <c r="H29">
-        <v>109.785373</v>
+        <v>103.664405</v>
       </c>
       <c r="I29">
-        <v>0.04797749367663937</v>
+        <v>0.05868109416957502</v>
       </c>
       <c r="J29">
-        <v>0.04797749367663939</v>
+        <v>0.05868109416957502</v>
       </c>
       <c r="K29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M29">
-        <v>0.7839796666666666</v>
+        <v>0.114977</v>
       </c>
       <c r="N29">
-        <v>2.351939</v>
+        <v>0.344931</v>
       </c>
       <c r="O29">
-        <v>0.200347636015466</v>
+        <v>0.03522741187785264</v>
       </c>
       <c r="P29">
-        <v>0.200347636015466</v>
+        <v>0.03522741187785266</v>
       </c>
       <c r="Q29">
-        <v>28.68983337647188</v>
+        <v>3.973007431228333</v>
       </c>
       <c r="R29">
-        <v>258.2085003882469</v>
+        <v>35.757066881055</v>
       </c>
       <c r="S29">
-        <v>0.009612177440061667</v>
+        <v>0.002067183073754677</v>
       </c>
       <c r="T29">
-        <v>0.009612177440061671</v>
+        <v>0.002067183073754677</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>36.59512433333333</v>
+        <v>34.55480166666666</v>
       </c>
       <c r="H30">
-        <v>109.785373</v>
+        <v>103.664405</v>
       </c>
       <c r="I30">
-        <v>0.04797749367663937</v>
+        <v>0.05868109416957502</v>
       </c>
       <c r="J30">
-        <v>0.04797749367663939</v>
+        <v>0.05868109416957502</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1.862788333333333</v>
+        <v>2.032918666666667</v>
       </c>
       <c r="N30">
-        <v>5.588365</v>
+        <v>6.098756</v>
       </c>
       <c r="O30">
-        <v>0.476039436797285</v>
+        <v>0.6228590342837411</v>
       </c>
       <c r="P30">
-        <v>0.4760394367972851</v>
+        <v>0.6228590342837412</v>
       </c>
       <c r="Q30">
-        <v>68.1689706650161</v>
+        <v>70.24710133113111</v>
       </c>
       <c r="R30">
-        <v>613.5207359851449</v>
+        <v>632.2239119801799</v>
       </c>
       <c r="S30">
-        <v>0.02283917906877271</v>
+        <v>0.03655004964517477</v>
       </c>
       <c r="T30">
-        <v>0.02283917906877272</v>
+        <v>0.03655004964517478</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>36.59512433333333</v>
+        <v>34.55480166666666</v>
       </c>
       <c r="H31">
-        <v>109.785373</v>
+        <v>103.664405</v>
       </c>
       <c r="I31">
-        <v>0.04797749367663937</v>
+        <v>0.05868109416957502</v>
       </c>
       <c r="J31">
-        <v>0.04797749367663939</v>
+        <v>0.05868109416957502</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.209825</v>
+        <v>0.121463</v>
       </c>
       <c r="N31">
-        <v>0.629475</v>
+        <v>0.364389</v>
       </c>
       <c r="O31">
-        <v>0.05362121559310657</v>
+        <v>0.03721463535245846</v>
       </c>
       <c r="P31">
-        <v>0.05362121559310658</v>
+        <v>0.03721463535245847</v>
       </c>
       <c r="Q31">
-        <v>7.678571963241667</v>
+        <v>4.197129874838333</v>
       </c>
       <c r="R31">
-        <v>69.10714766917499</v>
+        <v>37.77416887354499</v>
       </c>
       <c r="S31">
-        <v>0.002572611532051987</v>
+        <v>0.002183795521604011</v>
       </c>
       <c r="T31">
-        <v>0.002572611532051988</v>
+        <v>0.002183795521604011</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,46 +2403,46 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>104.2030356666667</v>
+        <v>93.71982300000001</v>
       </c>
       <c r="H32">
-        <v>312.609107</v>
+        <v>281.159469</v>
       </c>
       <c r="I32">
-        <v>0.1366138406648432</v>
+        <v>0.1591553559493899</v>
       </c>
       <c r="J32">
-        <v>0.1366138406648433</v>
+        <v>0.1591553559493899</v>
       </c>
       <c r="K32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L32">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M32">
-        <v>0.167924</v>
+        <v>0.22092</v>
       </c>
       <c r="N32">
-        <v>0.503772</v>
+        <v>0.66276</v>
       </c>
       <c r="O32">
-        <v>0.04291332780772943</v>
+        <v>0.06768692722940421</v>
       </c>
       <c r="P32">
-        <v>0.04291332780772943</v>
+        <v>0.06768692722940423</v>
       </c>
       <c r="Q32">
-        <v>17.49819056128933</v>
+        <v>20.70458329716</v>
       </c>
       <c r="R32">
-        <v>157.483715051604</v>
+        <v>186.34124967444</v>
       </c>
       <c r="S32">
-        <v>0.005862554527523334</v>
+        <v>0.01077273699631628</v>
       </c>
       <c r="T32">
-        <v>0.005862554527523337</v>
+        <v>0.01077273699631628</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>104.2030356666667</v>
+        <v>93.71982300000001</v>
       </c>
       <c r="H33">
-        <v>312.609107</v>
+        <v>281.159469</v>
       </c>
       <c r="I33">
-        <v>0.1366138406648432</v>
+        <v>0.1591553559493899</v>
       </c>
       <c r="J33">
-        <v>0.1366138406648433</v>
+        <v>0.1591553559493899</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>1.897648</v>
       </c>
       <c r="O33">
-        <v>0.1616492990632312</v>
+        <v>0.193804638305004</v>
       </c>
       <c r="P33">
-        <v>0.1616492990632313</v>
+        <v>0.193804638305004</v>
       </c>
       <c r="Q33">
-        <v>65.91356074225955</v>
+        <v>59.282411558768</v>
       </c>
       <c r="R33">
-        <v>593.222046680336</v>
+        <v>533.541704028912</v>
       </c>
       <c r="S33">
-        <v>0.02208353158580786</v>
+        <v>0.03084504619407567</v>
       </c>
       <c r="T33">
-        <v>0.02208353158580788</v>
+        <v>0.03084504619407567</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>104.2030356666667</v>
+        <v>93.71982300000001</v>
       </c>
       <c r="H34">
-        <v>312.609107</v>
+        <v>281.159469</v>
       </c>
       <c r="I34">
-        <v>0.1366138406648432</v>
+        <v>0.1591553559493899</v>
       </c>
       <c r="J34">
-        <v>0.1366138406648433</v>
+        <v>0.1591553559493899</v>
       </c>
       <c r="K34">
         <v>2</v>
@@ -2545,28 +2545,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M34">
-        <v>0.2560303333333334</v>
+        <v>0.1410223333333333</v>
       </c>
       <c r="N34">
-        <v>0.7680910000000001</v>
+        <v>0.423067</v>
       </c>
       <c r="O34">
-        <v>0.06542908472318174</v>
+        <v>0.04320735295153955</v>
       </c>
       <c r="P34">
-        <v>0.06542908472318174</v>
+        <v>0.04320735295153956</v>
       </c>
       <c r="Q34">
-        <v>26.67913795608189</v>
+        <v>13.216588119047</v>
       </c>
       <c r="R34">
-        <v>240.112241604737</v>
+        <v>118.949293071423</v>
       </c>
       <c r="S34">
-        <v>0.008938518555219278</v>
+        <v>0.006876681638633197</v>
       </c>
       <c r="T34">
-        <v>0.008938518555219281</v>
+        <v>0.0068766816386332</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,46 +2589,46 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>104.2030356666667</v>
+        <v>93.71982300000001</v>
       </c>
       <c r="H35">
-        <v>312.609107</v>
+        <v>281.159469</v>
       </c>
       <c r="I35">
-        <v>0.1366138406648432</v>
+        <v>0.1591553559493899</v>
       </c>
       <c r="J35">
-        <v>0.1366138406648433</v>
+        <v>0.1591553559493899</v>
       </c>
       <c r="K35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L35">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M35">
-        <v>0.7839796666666666</v>
+        <v>0.114977</v>
       </c>
       <c r="N35">
-        <v>2.351939</v>
+        <v>0.344931</v>
       </c>
       <c r="O35">
-        <v>0.200347636015466</v>
+        <v>0.03522741187785264</v>
       </c>
       <c r="P35">
-        <v>0.200347636015466</v>
+        <v>0.03522741187785266</v>
       </c>
       <c r="Q35">
-        <v>81.69306116760811</v>
+        <v>10.775624089071</v>
       </c>
       <c r="R35">
-        <v>735.237550508473</v>
+        <v>96.980616801639</v>
       </c>
       <c r="S35">
-        <v>0.02737026002419488</v>
+        <v>0.005606631276595403</v>
       </c>
       <c r="T35">
-        <v>0.02737026002419489</v>
+        <v>0.005606631276595405</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>104.2030356666667</v>
+        <v>93.71982300000001</v>
       </c>
       <c r="H36">
-        <v>312.609107</v>
+        <v>281.159469</v>
       </c>
       <c r="I36">
-        <v>0.1366138406648432</v>
+        <v>0.1591553559493899</v>
       </c>
       <c r="J36">
-        <v>0.1366138406648433</v>
+        <v>0.1591553559493899</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>1.862788333333333</v>
+        <v>2.032918666666667</v>
       </c>
       <c r="N36">
-        <v>5.588365</v>
+        <v>6.098756</v>
       </c>
       <c r="O36">
-        <v>0.476039436797285</v>
+        <v>0.6228590342837411</v>
       </c>
       <c r="P36">
-        <v>0.4760394367972851</v>
+        <v>0.6228590342837412</v>
       </c>
       <c r="Q36">
-        <v>194.1081991377839</v>
+        <v>190.524777613396</v>
       </c>
       <c r="R36">
-        <v>1746.973792240055</v>
+        <v>1714.722998520564</v>
       </c>
       <c r="S36">
-        <v>0.065033575768806</v>
+        <v>0.09913135130772205</v>
       </c>
       <c r="T36">
-        <v>0.06503357576880603</v>
+        <v>0.09913135130772206</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>104.2030356666667</v>
+        <v>93.71982300000001</v>
       </c>
       <c r="H37">
-        <v>312.609107</v>
+        <v>281.159469</v>
       </c>
       <c r="I37">
-        <v>0.1366138406648432</v>
+        <v>0.1591553559493899</v>
       </c>
       <c r="J37">
-        <v>0.1366138406648433</v>
+        <v>0.1591553559493899</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.209825</v>
+        <v>0.121463</v>
       </c>
       <c r="N37">
-        <v>0.629475</v>
+        <v>0.364389</v>
       </c>
       <c r="O37">
-        <v>0.05362121559310657</v>
+        <v>0.03721463535245846</v>
       </c>
       <c r="P37">
-        <v>0.05362121559310658</v>
+        <v>0.03721463535245847</v>
       </c>
       <c r="Q37">
-        <v>21.86440195875834</v>
+        <v>11.383490861049</v>
       </c>
       <c r="R37">
-        <v>196.779617628825</v>
+        <v>102.451417749441</v>
       </c>
       <c r="S37">
-        <v>0.007325400203291868</v>
+        <v>0.005922908536047274</v>
       </c>
       <c r="T37">
-        <v>0.007325400203291872</v>
+        <v>0.005922908536047275</v>
       </c>
     </row>
   </sheetData>
